--- a/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
+++ b/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linh\Desktop\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D1B70B-26F0-4F6F-9A11-04E7ED1740EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7032" yWindow="4476" windowWidth="23040" windowHeight="13608" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Tên hàng / Mục đích sử dụng</t>
   </si>
@@ -62,19 +62,10 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Camera HDV - USB800MP39 - L3.6</t>
-  </si>
-  <si>
     <t>Cái</t>
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>Shenzhen HDV Electronics Co., Ltd</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Led thanh 5054 12V</t>
@@ -85,9 +76,6 @@
 Website: https://ledgiatot.vn</t>
   </si>
   <si>
-    <t>44000 (10% VAT)</t>
-  </si>
-  <si>
     <t>Mạch nguồn hạ áp LM2596</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t xml:space="preserve">Dây điện đôi </t>
   </si>
   <si>
-    <t xml:space="preserve">m </t>
-  </si>
-  <si>
     <t>Điện từ Spider
 Địa chỉ: 16 Ngô Sĩ Liên, Hòa Khánh Bắc, Liên Chiểu, Đà Nẵng</t>
   </si>
@@ -122,9 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hộp đựng camera </t>
-  </si>
-  <si>
-    <t>82000 (+phí ship)</t>
   </si>
   <si>
     <t>Tiến Đăng Shop
@@ -132,16 +114,10 @@
 Email: songkimstore@gmail.com</t>
   </si>
   <si>
-    <t>Giá gốc: 69,40 US$</t>
-  </si>
-  <si>
     <t>thanh</t>
   </si>
   <si>
     <t>Thanh INOX / dùng làm thanh đỡ cho hộp camera</t>
-  </si>
-  <si>
-    <t>172000 (+ phí ship)</t>
   </si>
   <si>
     <t>Xưởng vật dụng mở shop Palia
@@ -153,6 +129,27 @@
   <si>
     <t>HV Store
 Hotline: 0906236862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera 8MP Varifocal </t>
+  </si>
+  <si>
+    <t>mét</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mét </t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Giá chưa bao gồm VAT, phí ship</t>
+  </si>
+  <si>
+    <t>KYOO.INFO - Hệ thống bán buôn giá tại xưởng
+Địa chỉ: Tòa nhà GP Invest, 170 Đê La Thành, Ô Chợ Dừa, Đống Đa, Hà Nội
+Hotline: 0763161222
+Email: info@kyoo.info</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,22 +575,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27381B23-575C-44F2-A1BD-FC7801FF8CA2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -619,65 +619,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3190000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3190000</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>40000</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
+      <c r="E3" s="2">
+        <v>44000</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>18000</v>
@@ -686,22 +686,22 @@
         <v>36000</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <v>10000</v>
@@ -710,21 +710,21 @@
         <v>20000</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9">
         <v>4000</v>
@@ -733,22 +733,22 @@
         <v>20000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9">
         <v>25000</v>
@@ -757,67 +757,67 @@
         <v>25000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9">
         <v>25000</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
+      <c r="E8" s="9">
+        <v>82000</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9">
         <v>140000</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>32</v>
+      <c r="E9" s="9">
+        <v>172000</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="9">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9">
         <v>1300</v>
@@ -826,23 +826,29 @@
         <v>13000</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{B21321F3-1463-408E-BA96-16BDEB3AABC0}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{FFC48836-871C-4847-B8CF-00DE34A685C4}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{16BA5F17-DCC3-41A9-8D26-2A6AB5BBB19C}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{20614418-F4E5-4FE6-9C21-5B80183D64DA}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{A911CBB0-C989-4760-AD86-46154BD805B7}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{134B6819-78CE-43B6-AE5F-23FCDFC2698D}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{3F77CBF7-2ECF-4BC8-BB7A-A44D310DD344}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{265EDFD4-ED05-4211-AC5F-A0053EDDB210}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{CB2E1644-CFEF-4AF1-B8C7-EF6496ADB49B}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FFC48836-871C-4847-B8CF-00DE34A685C4}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{16BA5F17-DCC3-41A9-8D26-2A6AB5BBB19C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{20614418-F4E5-4FE6-9C21-5B80183D64DA}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{A911CBB0-C989-4760-AD86-46154BD805B7}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{134B6819-78CE-43B6-AE5F-23FCDFC2698D}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{3F77CBF7-2ECF-4BC8-BB7A-A44D310DD344}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{265EDFD4-ED05-4211-AC5F-A0053EDDB210}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{CB2E1644-CFEF-4AF1-B8C7-EF6496ADB49B}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{353D54F9-4638-4EAC-AF4F-21C8AE121672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
+++ b/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36b6ff3106d558d9/Desktop/robot-vision-system/6. LINH WORKSPACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081FB898-6F86-428F-AB2F-6D1BA90CA90A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20676" windowHeight="18576" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Tên hàng / Mục đích sử dụng</t>
   </si>
@@ -117,20 +117,6 @@
     <t>thanh</t>
   </si>
   <si>
-    <t>Thanh INOX / dùng làm thanh đỡ cho hộp camera</t>
-  </si>
-  <si>
-    <t>Xưởng vật dụng mở shop Palia
-Email: paliavietnam@gmail.com</t>
-  </si>
-  <si>
-    <t>Ke chữ L 5X5cm</t>
-  </si>
-  <si>
-    <t>HV Store
-Hotline: 0906236862</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camera 8MP Varifocal </t>
   </si>
   <si>
@@ -138,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">mét </t>
-  </si>
-  <si>
-    <t>TC</t>
   </si>
   <si>
     <t>Giá chưa bao gồm VAT, phí ship</t>
@@ -150,6 +133,37 @@
 Địa chỉ: Tòa nhà GP Invest, 170 Đê La Thành, Ô Chợ Dừa, Đống Đa, Hà Nội
 Hotline: 0763161222
 Email: info@kyoo.info</t>
+  </si>
+  <si>
+    <t>Thanh nhôm định hình 2020 800mm</t>
+  </si>
+  <si>
+    <t>Ke vuông góc cho nhôm định hình chìm 2020</t>
+  </si>
+  <si>
+    <t>Pad chữ L cố định nhôm định hình</t>
+  </si>
+  <si>
+    <t>Cơ khí điện tử
+Thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Link kiện cơ khí
+Quận 1, thành phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Giá chưa bao gồm phí ship</t>
+  </si>
+  <si>
+    <t>Có thể mua tại shop ở Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Thiết bị điện Hàn Quốc
+Long Thành, Đồng Nai
+Số đt: 0938276224 - 0938096421</t>
+  </si>
+  <si>
+    <t>Tấm nhựa Pom/ Dùng để kết nối thanh nhôm với hộp đựng camera</t>
   </si>
 </sst>
 </file>
@@ -222,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,12 +248,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27381B23-575C-44F2-A1BD-FC7801FF8CA2}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -621,7 +629,7 @@
     </row>
     <row r="2" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -635,14 +643,14 @@
       <c r="E2" s="2">
         <v>3190000</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -653,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>40000</v>
@@ -661,181 +669,248 @@
       <c r="E3" s="2">
         <v>44000</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>18000</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>36000</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>10000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>20000</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
         <v>4000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>20000</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>25000</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>25000</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>25000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>82000</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9">
-        <v>140000</v>
-      </c>
-      <c r="E9" s="9">
-        <v>172000</v>
+      <c r="D9" s="7">
+        <v>82000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>164000</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>25</v>
+      <c r="G9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9">
+        <v>30</v>
+      </c>
+      <c r="B10" s="7">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E10" s="9">
-        <v>13000</v>
+      <c r="D10" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="7">
+        <v>90000</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14000</v>
+      </c>
+      <c r="E11" s="7">
+        <v>56000</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7">
+        <v>52000</v>
+      </c>
+      <c r="E12" s="7">
+        <v>52000</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -846,11 +921,13 @@
     <hyperlink ref="F6" r:id="rId4" xr:uid="{A911CBB0-C989-4760-AD86-46154BD805B7}"/>
     <hyperlink ref="F7" r:id="rId5" xr:uid="{134B6819-78CE-43B6-AE5F-23FCDFC2698D}"/>
     <hyperlink ref="F8" r:id="rId6" xr:uid="{3F77CBF7-2ECF-4BC8-BB7A-A44D310DD344}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{265EDFD4-ED05-4211-AC5F-A0053EDDB210}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{CB2E1644-CFEF-4AF1-B8C7-EF6496ADB49B}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{353D54F9-4638-4EAC-AF4F-21C8AE121672}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{353D54F9-4638-4EAC-AF4F-21C8AE121672}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{4C2AF4A5-2B0E-4A56-AC6D-F1F5E5FB60A6}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{FBEB4707-585B-4E92-A3E6-A3F64403BB0C}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{C6FCB1B6-FBA7-4AE5-80F0-887F3F08009B}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{2CD7F394-6B5D-447D-BB57-9E4D5270EAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
+++ b/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36b6ff3106d558d9/Desktop/robot-vision-system/6. LINH WORKSPACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081FB898-6F86-428F-AB2F-6D1BA90CA90A}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC22C13A-7347-4637-BFC7-F93D8BBD8F3C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20676" windowHeight="18576" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Tên hàng / Mục đích sử dụng</t>
   </si>
@@ -163,7 +163,11 @@
 Số đt: 0938276224 - 0938096421</t>
   </si>
   <si>
-    <t>Tấm nhựa Pom/ Dùng để kết nối thanh nhôm với hộp đựng camera</t>
+    <t>Tấm nhựa Pom/ Dùng để kết nối thanh nhôm với hộp đựng camera
+(10x150x150 mm)</t>
+  </si>
+  <si>
+    <t>Ốc vít</t>
   </si>
 </sst>
 </file>
@@ -236,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,21 +590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27381B23-575C-44F2-A1BD-FC7801FF8CA2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -888,7 +895,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="7">
@@ -911,6 +918,11 @@
       </c>
       <c r="H12" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
+++ b/6. LINH WORKSPACE/US-11-List-thiet-bi-module-camera.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36b6ff3106d558d9/Desktop/robot-vision-system/6. LINH WORKSPACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC22C13A-7347-4637-BFC7-F93D8BBD8F3C}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{E542454F-CBB3-4E4C-A241-DE8FE201254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11742BDE-5CAD-4FAC-9FAA-C67D4645D66E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A5CDFF95-7873-4DD0-BB70-D1A5DB9166F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Tên hàng / Mục đích sử dụng</t>
   </si>
@@ -69,11 +70,6 @@
   </si>
   <si>
     <t>Led thanh 5054 12V</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH PT – TM – ATHACO
-Gmail: athaco.q9@gmail.com
-Website: https://ledgiatot.vn</t>
   </si>
   <si>
     <t>Mạch nguồn hạ áp LM2596</t>
@@ -83,12 +79,6 @@
 Địa chỉ: 24/2 Ngô Sĩ Liên, Hòa Khánh Bắc, Liên Chiểu, Đà Nẵng</t>
   </si>
   <si>
-    <t>Jack DC đực cái</t>
-  </si>
-  <si>
-    <t>Cặp</t>
-  </si>
-  <si>
     <t>Điện tử Spider
 Địa chỉ: 16 Ngô Sĩ Liên, Hòa Khánh Bắc, Liên Chiểu, Đà Nẵng</t>
   </si>
@@ -101,12 +91,6 @@
   </si>
   <si>
     <t>cái</t>
-  </si>
-  <si>
-    <t>Dây cáp nối USB 2 đầu đực 1.5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hộp đựng camera </t>
   </si>
   <si>
     <t>Tiến Đăng Shop
@@ -135,23 +119,6 @@
 Email: info@kyoo.info</t>
   </si>
   <si>
-    <t>Thanh nhôm định hình 2020 800mm</t>
-  </si>
-  <si>
-    <t>Ke vuông góc cho nhôm định hình chìm 2020</t>
-  </si>
-  <si>
-    <t>Pad chữ L cố định nhôm định hình</t>
-  </si>
-  <si>
-    <t>Cơ khí điện tử
-Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Link kiện cơ khí
-Quận 1, thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>Giá chưa bao gồm phí ship</t>
   </si>
   <si>
@@ -167,14 +134,93 @@
 (10x150x150 mm)</t>
   </si>
   <si>
-    <t>Ốc vít</t>
+    <t>Tấm tản sáng 30x30cm dày 1mm</t>
+  </si>
+  <si>
+    <t>Tấm</t>
+  </si>
+  <si>
+    <t>Hazomi.com - Siêu thị trực tuyến
+Địa chỉ: 203 LOTTE Center, Minh Khai, Hai Bà Trưng, Hà Nội.
+Hotline: 02499966602
+Email: hotro@hazomi.com</t>
+  </si>
+  <si>
+    <t>Thanh nhôm định hình 2020 600mm</t>
+  </si>
+  <si>
+    <t>Hộp đựng camera 20cmx20cm</t>
+  </si>
+  <si>
+    <t>Jack DC có vặn vít 5.5x2.1mm đực</t>
+  </si>
+  <si>
+    <t>Jack DC có vặn vít 5.5x2.1mm cái</t>
+  </si>
+  <si>
+    <t>Dây cáp nối USB 2.0 từ đầu cái sang đầu đực 3m</t>
+  </si>
+  <si>
+    <t>dây</t>
+  </si>
+  <si>
+    <t>Ốc vít vặn để kết nối tấm nhựa Pom với hộp đèn</t>
+  </si>
+  <si>
+    <t>cặp</t>
+  </si>
+  <si>
+    <t>Ke vuông góc cho nhôm định hình chìm 2020-M5</t>
+  </si>
+  <si>
+    <t>Linh kiện Cầu Giấy
+Địa chỉ: Số 20, ngách 1, ngõ 46 Trần Quốc Hoàn, Cầu Giấy, Hà Nội
+Hotline/SMS/Zalo: 094.548.5187
+Mail: linhkiencaugiay@gmail.com</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>KTSHOP.VN
+Địa chỉ: Phạm Văn Chiêu, phường 14, quận Gò Vấp, thành phố Hồ Chí Minh
+Phone / Zalo: O76.233.1268</t>
+  </si>
+  <si>
+    <t>Bulong lục giác inox M5 - dài 18mm / dùng để kết
+nối ke vuông góc với thanh nhôm 2020</t>
+  </si>
+  <si>
+    <t>Cửa hàng Lan Anh
+Quận Tân Bình, tp Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Chưa bao gồm phí  ship</t>
+  </si>
+  <si>
+    <t>Vít tự khoan inox 304 (đầu dù) /
+Dùng để cố định vị trí của LM2596, 
+tấm tản sáng, led thanh</t>
+  </si>
+  <si>
+    <t>Ke góc vuông chữ L kích cỡ 2x2x2cm
+Dùng để cố định vị trí camera với hộp</t>
+  </si>
+  <si>
+    <t>Vật tư Duc Duyen
+Địa chỉ: Cây Xăng - Chợ Tổng, Xã Lưu Kiếm, Thủy Nguyên, Hải Phòng
+Số điện thoại: 0888.303.292</t>
+  </si>
+  <si>
+    <t>Ốc vít/ dùng để kết nối Ke chữ L với
+ camera và hộp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +239,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -254,25 +293,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -291,6 +330,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27381B23-575C-44F2-A1BD-FC7801FF8CA2}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -634,9 +677,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -650,14 +693,14 @@
       <c r="E2" s="2">
         <v>3190000</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -668,278 +711,409 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22000</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44000</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>36000</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>18000</v>
-      </c>
-      <c r="E4" s="7">
-        <v>36000</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6">
+        <v>319000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>319000</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
         <v>4000</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>20000</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7">
-        <v>25000</v>
-      </c>
-      <c r="E7" s="7">
-        <v>25000</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>16000</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7">
-        <v>25000</v>
-      </c>
-      <c r="E8" s="7">
-        <v>82000</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>58000</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>57800</v>
+      </c>
+      <c r="E9" s="6">
+        <v>57800</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>24000</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>52000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>52000</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7">
-        <v>82000</v>
-      </c>
-      <c r="E9" s="7">
-        <v>164000</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <v>9000</v>
-      </c>
-      <c r="E10" s="7">
-        <v>90000</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6">
+        <v>17100</v>
+      </c>
+      <c r="E14" s="6">
+        <v>17100</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7">
-        <v>14000</v>
-      </c>
-      <c r="E11" s="7">
-        <v>56000</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
-        <v>52000</v>
-      </c>
-      <c r="E12" s="7">
-        <v>52000</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5700</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{FFC48836-871C-4847-B8CF-00DE34A685C4}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{16BA5F17-DCC3-41A9-8D26-2A6AB5BBB19C}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{20614418-F4E5-4FE6-9C21-5B80183D64DA}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{A911CBB0-C989-4760-AD86-46154BD805B7}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{134B6819-78CE-43B6-AE5F-23FCDFC2698D}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{3F77CBF7-2ECF-4BC8-BB7A-A44D310DD344}"/>
-    <hyperlink ref="F2" r:id="rId7" xr:uid="{353D54F9-4638-4EAC-AF4F-21C8AE121672}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{4C2AF4A5-2B0E-4A56-AC6D-F1F5E5FB60A6}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{FBEB4707-585B-4E92-A3E6-A3F64403BB0C}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{C6FCB1B6-FBA7-4AE5-80F0-887F3F08009B}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{2CD7F394-6B5D-447D-BB57-9E4D5270EAD3}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{16BA5F17-DCC3-41A9-8D26-2A6AB5BBB19C}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{A911CBB0-C989-4760-AD86-46154BD805B7}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{3F77CBF7-2ECF-4BC8-BB7A-A44D310DD344}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{353D54F9-4638-4EAC-AF4F-21C8AE121672}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{4C2AF4A5-2B0E-4A56-AC6D-F1F5E5FB60A6}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{FCF65659-B437-444D-9F2E-EB584525F96A}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{027D6C2E-04C4-4703-BEC4-78058C7C7EA0}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{93AEBC27-71A7-4FA6-8043-1C7045450545}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{485F697F-86C7-43AF-8CB0-115CAD74CB37}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{63034414-2AD7-4F6C-A78E-E7DFC89BECF5}"/>
+    <hyperlink ref="F7" r:id="rId11" xr:uid="{B1BE4B46-33AB-4E16-89D6-CD68FD2CC0FE}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{7D3BE566-7E4F-4388-B019-78F2A45D0A4C}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{EE150A62-43E1-4F03-94CC-9E7498100BDA}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{1B0E9776-1E30-4ECB-A81A-5E861D41958F}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{0DE910BE-A2E6-40FC-B48F-07507E83D10B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26E801F-0D62-4530-88D0-AAA34E1EBB2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>